--- a/outputs-r202/test-g__F23-D06.xlsx
+++ b/outputs-r202/test-g__F23-D06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Row</t>
   </si>
@@ -97,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -107,14 +107,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,329 +149,329 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2200316445310595e-14</v>
+        <v>2.2203873069773346e-14</v>
       </c>
       <c r="C2">
-        <v>2.2200316445310595e-14</v>
+        <v>2.2203873069773346e-14</v>
       </c>
       <c r="D2">
-        <v>0.99709048316473792</v>
+        <v>0.9996557347314613</v>
       </c>
       <c r="E2">
-        <v>2.2200316445310595e-14</v>
+        <v>2.2203873069773346e-14</v>
       </c>
       <c r="F2">
-        <v>2.2200316445310595e-14</v>
+        <v>2.2203873069773346e-14</v>
       </c>
       <c r="G2">
-        <v>2.2200316445310595e-14</v>
+        <v>2.2203873069773346e-14</v>
       </c>
       <c r="H2">
-        <v>0.0029095168350177902</v>
+        <v>0.00034426526829431641</v>
       </c>
       <c r="I2">
-        <v>2.2200316445310595e-14</v>
+        <v>2.2203873069773346e-14</v>
       </c>
       <c r="J2">
-        <v>2.2200316445310595e-14</v>
+        <v>2.2203873069773346e-14</v>
       </c>
       <c r="K2">
-        <v>2.2200316445310595e-14</v>
+        <v>2.2203873069773346e-14</v>
       </c>
       <c r="L2">
-        <v>2.2200316445310595e-14</v>
+        <v>2.2203873069773346e-14</v>
       </c>
       <c r="M2">
-        <v>2.2200316445310595e-14</v>
+        <v>2.2203873069773346e-14</v>
       </c>
       <c r="N2">
-        <v>2.2200316445310595e-14</v>
+        <v>2.2203873069773346e-14</v>
       </c>
       <c r="O2">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.2200317802358586e-14</v>
+        <v>2.2201961460729756e-14</v>
       </c>
       <c r="C3">
-        <v>2.2200317802358586e-14</v>
+        <v>2.2201961460729756e-14</v>
       </c>
       <c r="D3">
-        <v>2.2200317802358586e-14</v>
+        <v>2.2201961460729756e-14</v>
       </c>
       <c r="E3">
-        <v>0.99713518027229686</v>
+        <v>0.99853055587587225</v>
       </c>
       <c r="F3">
-        <v>2.2200317802358586e-14</v>
+        <v>2.2201961460729756e-14</v>
       </c>
       <c r="G3">
-        <v>2.2200317802358586e-14</v>
+        <v>2.2201961460729756e-14</v>
       </c>
       <c r="H3">
-        <v>0.0028648197274588495</v>
+        <v>0.0014694441238835968</v>
       </c>
       <c r="I3">
-        <v>2.2200317802358586e-14</v>
+        <v>2.2201961460729756e-14</v>
       </c>
       <c r="J3">
-        <v>2.2200317802358586e-14</v>
+        <v>2.2201961460729756e-14</v>
       </c>
       <c r="K3">
-        <v>2.2200317802358586e-14</v>
+        <v>2.2201961460729756e-14</v>
       </c>
       <c r="L3">
-        <v>2.2200317802358586e-14</v>
+        <v>2.2201961460729756e-14</v>
       </c>
       <c r="M3">
-        <v>2.2200317802358586e-14</v>
+        <v>2.2201961460729756e-14</v>
       </c>
       <c r="N3">
-        <v>2.2200317802358586e-14</v>
+        <v>2.2201961460729756e-14</v>
       </c>
       <c r="O3">
         <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.220328505099788e-14</v>
+        <v>2.2204304421265128e-14</v>
       </c>
       <c r="C4">
-        <v>2.220328505099788e-14</v>
+        <v>2.2204304421265128e-14</v>
       </c>
       <c r="D4">
-        <v>2.220328505099788e-14</v>
+        <v>2.2204304421265128e-14</v>
       </c>
       <c r="E4">
-        <v>2.220328505099788e-14</v>
+        <v>2.2204304421265128e-14</v>
       </c>
       <c r="F4">
-        <v>0.99931042011756188</v>
+        <v>0.99990860075671817</v>
       </c>
       <c r="G4">
-        <v>2.220328505099788e-14</v>
+        <v>2.2204304421265128e-14</v>
       </c>
       <c r="H4">
-        <v>0.00068957988219392095</v>
+        <v>9.1399243037499302e-05</v>
       </c>
       <c r="I4">
-        <v>2.220328505099788e-14</v>
+        <v>2.2204304421265128e-14</v>
       </c>
       <c r="J4">
-        <v>2.220328505099788e-14</v>
+        <v>2.2204304421265128e-14</v>
       </c>
       <c r="K4">
-        <v>2.220328505099788e-14</v>
+        <v>2.2204304421265128e-14</v>
       </c>
       <c r="L4">
-        <v>2.220328505099788e-14</v>
+        <v>2.2204304421265128e-14</v>
       </c>
       <c r="M4">
-        <v>2.220328505099788e-14</v>
+        <v>2.2204304421265128e-14</v>
       </c>
       <c r="N4">
-        <v>2.220328505099788e-14</v>
+        <v>2.2204304421265128e-14</v>
       </c>
       <c r="O4">
         <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.2204270635022481e-14</v>
+        <v>2.220443655903852e-14</v>
       </c>
       <c r="C5">
-        <v>2.2204270635022481e-14</v>
+        <v>2.220443655903852e-14</v>
       </c>
       <c r="D5">
-        <v>2.2204270635022481e-14</v>
+        <v>2.220443655903852e-14</v>
       </c>
       <c r="E5">
-        <v>2.2204270635022481e-14</v>
+        <v>2.220443655903852e-14</v>
       </c>
       <c r="F5">
-        <v>2.2204270635022481e-14</v>
+        <v>2.220443655903852e-14</v>
       </c>
       <c r="G5">
-        <v>0.99988880821758652</v>
+        <v>0.99998598714701936</v>
       </c>
       <c r="H5">
-        <v>0.00011119178216928416</v>
+        <v>1.4012852736480104e-05</v>
       </c>
       <c r="I5">
-        <v>2.2204270635022481e-14</v>
+        <v>2.220443655903852e-14</v>
       </c>
       <c r="J5">
-        <v>2.2204270635022481e-14</v>
+        <v>2.220443655903852e-14</v>
       </c>
       <c r="K5">
-        <v>2.2204270635022481e-14</v>
+        <v>2.220443655903852e-14</v>
       </c>
       <c r="L5">
-        <v>2.2204270635022481e-14</v>
+        <v>2.220443655903852e-14</v>
       </c>
       <c r="M5">
-        <v>2.2204270635022481e-14</v>
+        <v>2.220443655903852e-14</v>
       </c>
       <c r="N5">
-        <v>2.2204270635022481e-14</v>
+        <v>2.220443655903852e-14</v>
       </c>
       <c r="O5">
         <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.2201589377531333e-14</v>
+        <v>2.2203353168746267e-14</v>
       </c>
       <c r="C6">
-        <v>2.2201589377531333e-14</v>
+        <v>2.2203353168746267e-14</v>
       </c>
       <c r="D6">
-        <v>2.2201589377531333e-14</v>
+        <v>2.2203353168746267e-14</v>
       </c>
       <c r="E6">
-        <v>0.99831067354009917</v>
+        <v>0.99935045833653802</v>
       </c>
       <c r="F6">
-        <v>2.2201589377531333e-14</v>
+        <v>2.2203353168746267e-14</v>
       </c>
       <c r="G6">
-        <v>2.2201589377531333e-14</v>
+        <v>2.2203353168746267e-14</v>
       </c>
       <c r="H6">
-        <v>0.0016893264596566939</v>
+        <v>0.00064954166321767837</v>
       </c>
       <c r="I6">
-        <v>2.2201589377531333e-14</v>
+        <v>2.2203353168746267e-14</v>
       </c>
       <c r="J6">
-        <v>2.2201589377531333e-14</v>
+        <v>2.2203353168746267e-14</v>
       </c>
       <c r="K6">
-        <v>2.2201589377531333e-14</v>
+        <v>2.2203353168746267e-14</v>
       </c>
       <c r="L6">
-        <v>2.2201589377531333e-14</v>
+        <v>2.2203353168746267e-14</v>
       </c>
       <c r="M6">
-        <v>2.2201589377531333e-14</v>
+        <v>2.2203353168746267e-14</v>
       </c>
       <c r="N6">
-        <v>2.2201589377531333e-14</v>
+        <v>2.2203353168746267e-14</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.00052745186531347578</v>
+        <v>0.00051009104935006804</v>
       </c>
       <c r="C7">
-        <v>0.00052745186531347578</v>
+        <v>0.00051009104935006804</v>
       </c>
       <c r="D7">
-        <v>0.00052745186531347318</v>
+        <v>0.00051009104935006283</v>
       </c>
       <c r="E7">
-        <v>0.00052745186531347014</v>
+        <v>0.00051009104935006424</v>
       </c>
       <c r="F7">
-        <v>0.00052745186531347014</v>
+        <v>0.00051009104935006424</v>
       </c>
       <c r="G7">
-        <v>0.00052745186531346863</v>
+        <v>0.00051009104935005915</v>
       </c>
       <c r="H7">
-        <v>0.99367057761623845</v>
+        <v>0.99387890740779938</v>
       </c>
       <c r="I7">
-        <v>0.00052745186531346863</v>
+        <v>0.00051009104935005915</v>
       </c>
       <c r="J7">
-        <v>0.00052745186531347058</v>
+        <v>0.00051009104935006251</v>
       </c>
       <c r="K7">
-        <v>0.00052745186531346277</v>
+        <v>0.00051009104935005546</v>
       </c>
       <c r="L7">
-        <v>0.00052745186531346277</v>
+        <v>0.00051009104935005546</v>
       </c>
       <c r="M7">
-        <v>0.00052745186531346277</v>
+        <v>0.00051009104935005546</v>
       </c>
       <c r="N7">
-        <v>0.00052745186531345984</v>
+        <v>0.00051009104935005514</v>
       </c>
       <c r="O7">
         <v>7</v>
